--- a/JavaCheatSheet.xlsx
+++ b/JavaCheatSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\CheatSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1446A858-2445-453D-BDB0-97CDF1D731C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA8DC27-5190-404B-BF36-3419F30088BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="9072" xr2:uid="{EC8931CD-5C60-403B-9B81-EF15BC55DA65}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EC8931CD-5C60-403B-9B81-EF15BC55DA65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,12 +522,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{A87AB714-9E88-4FDA-AD11-F78852EADFB2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+System.out.println("</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>FizzBuzz</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>");</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Type Checking</t>
   </si>
@@ -555,12 +598,15 @@
   <si>
     <t>Jtable Sortable</t>
   </si>
+  <si>
+    <t>Console write line / print</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +633,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -931,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5B71F5-6887-4D0F-8F12-95B391CBD724}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,6 +1046,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/JavaCheatSheet.xlsx
+++ b/JavaCheatSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\CheatSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA8DC27-5190-404B-BF36-3419F30088BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D55559-2CA5-46C4-B329-D3103EEDC402}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EC8931CD-5C60-403B-9B81-EF15BC55DA65}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="12960" windowHeight="6864" xr2:uid="{EC8931CD-5C60-403B-9B81-EF15BC55DA65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,63 @@
     <author>Jeremy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B42FCF85-13B5-4DE7-97F3-3CFA0807434A}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F2DCCCA0-17CC-4283-A015-196DC51C60AE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    static double getDouble(Scanner sc, String prompt) {
+        double x = 0;
+        boolean isValid = false;
+        while (!isValid) {
+            System.out.println(prompt);
+            if (sc.hasNextDouble()) {
+                x = sc.nextDouble();
+                isValid = true;
+            } else {
+                System.out.println("Please provide a valid number.");
+            }
+            sc.nextLine();
+        }
+        return x;
+    }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{48E4BDDC-BABA-4DFF-A91D-A0B303D68519}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    static int getInt(Scanner sc, String prompt) {
+        boolean isValid = false;
+        int value = 0;
+        while (!isValid) {
+            p(prompt);
+            if (sc.hasNextInt()) {
+                value = sc.nextInt();
+                isValid = true;
+            } else {
+                System.out.println("Please provide whole numbers only.");
+            }
+            sc.nextLine();
+        }
+        return value;
+    }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{B42FCF85-13B5-4DE7-97F3-3CFA0807434A}">
       <text>
         <r>
           <rPr>
@@ -65,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{4493CFDA-C4EC-409E-A21A-965FEAFA99D8}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{4493CFDA-C4EC-409E-A21A-965FEAFA99D8}">
       <text>
         <r>
           <rPr>
@@ -109,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{DFB9B17E-CE28-49F2-B29E-B577087C4A3A}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{DFB9B17E-CE28-49F2-B29E-B577087C4A3A}">
       <text>
         <r>
           <rPr>
@@ -173,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{21367E58-E21F-41A9-B7CA-3F414E5E5B0B}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{21367E58-E21F-41A9-B7CA-3F414E5E5B0B}">
       <text>
         <r>
           <rPr>
@@ -217,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{31F965C7-1FF5-4819-8713-CFABA1388060}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{31F965C7-1FF5-4819-8713-CFABA1388060}">
       <text>
         <r>
           <rPr>
@@ -260,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{7A21623E-E59B-4895-AFEA-4D1DB360B357}">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{7A21623E-E59B-4895-AFEA-4D1DB360B357}">
       <text>
         <r>
           <rPr>
@@ -286,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{7DAF950D-7B6C-43E8-A772-ADFAC3649E12}">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{7DAF950D-7B6C-43E8-A772-ADFAC3649E12}">
       <text>
         <r>
           <rPr>
@@ -329,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{9C28F276-CB9F-4391-9E94-EF4C50DD418B}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{9C28F276-CB9F-4391-9E94-EF4C50DD418B}">
       <text>
         <r>
           <rPr>
@@ -475,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{2E43C275-2D2E-41CC-BAF4-EF7081C26879}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{2E43C275-2D2E-41CC-BAF4-EF7081C26879}">
       <text>
         <r>
           <rPr>
@@ -522,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{A87AB714-9E88-4FDA-AD11-F78852EADFB2}">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{A87AB714-9E88-4FDA-AD11-F78852EADFB2}">
       <text>
         <r>
           <rPr>
@@ -562,6 +618,239 @@
             <charset val="1"/>
           </rPr>
           <t>");</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{9B0779EA-996D-47BC-8451-40505A6E24B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+//Right click on project node and add new Standard Deployment Descriptor (web.xml)
+//Add at bottom of &lt;web-app&gt; tag
+&lt;welcome-file-list&gt;
+    &lt;welcome-file&gt;
+        </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>index.jsp</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    &lt;/welcome-file&gt;
+&lt;/welcome-file-list&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{037324FE-5F3E-4C5D-8C32-8D24B4EA79FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//Declarations
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//used to declare variables and methods
+&lt;%!
+        //JSP Declaration
+        private int addNumbers(int value1, int value2) {
+            return value1 + value2;
+        }
+        private int substractNumbers(int value1, int value2) {
+            return value1 - value2;
+        }
+%&gt;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//JSP Scriplets
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Used to contain any code fragment
+&lt;%
+    //JSP Scriplet
+    String countingList = "";
+    for (int i = 1; i &lt;= 20; i++) {
+        countingList += "&lt;li&gt;" + Integer.toString(i) + "&lt;/li&gt;";
+    }
+%&gt;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//JSP Expressions</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+//Used to insert the value of a expression</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{65D9168F-9CE5-48B8-8A3E-00554BF3ECE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Jeremy:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//build the list
+&lt;%
+    List&lt;Person&gt; people = new ArrayList();
+    Person jon = new Person();
+    jon.setId(1);
+    jon.setFirstName("Jon");
+    jon.setLastName("Snow");
+    Person dany = new Person();
+    dany.setId(2);
+    dany.setFirstName("Dany");
+    dany.setLastName("Targarian");
+    people.add(jon);
+    people.add(dany);
+%&gt;
+//Populate
+&lt;select&gt;
+    &lt;% for (Person person : people) {%&gt;
+        &lt;option value="&lt;%= person.getId()%&gt;"&gt;
+            &lt;%= person.getFullName()%&gt;
+        &lt;/option&gt;
+    &lt;% }%&gt;
+&lt;/select&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{7258CFCC-8A3B-4086-BEEF-992D6B8D7599}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+    public Make getMake(int id) {
+        List&lt;Make&gt; query = mockUpData.stream()
+                .filter(m -&gt; m.getId() == id)
+                .collect(Collectors.toList());
+        if (query.size() &gt; 0) {
+            return query.get(0);
+        } else {
+            return null;
+        }
+    }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{F46BBCDE-6DAA-4689-A929-DF3172DC57A7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    String id = request.getParameter("id");</t>
         </r>
       </text>
     </comment>
@@ -570,7 +859,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Type Checking</t>
   </si>
@@ -600,6 +889,27 @@
   </si>
   <si>
     <t>Console write line / print</t>
+  </si>
+  <si>
+    <t>Default Web Page</t>
+  </si>
+  <si>
+    <t>Delimeter</t>
+  </si>
+  <si>
+    <t>JSP Populate select</t>
+  </si>
+  <si>
+    <t>Stream filter / lamda / linq</t>
+  </si>
+  <si>
+    <t>Query string / get parameter / request</t>
+  </si>
+  <si>
+    <t>getInt</t>
+  </si>
+  <si>
+    <t>getDouble</t>
   </si>
 </sst>
 </file>
@@ -990,65 +1300,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5B71F5-6887-4D0F-8F12-95B391CBD724}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/JavaCheatSheet.xlsx
+++ b/JavaCheatSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\CheatSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D55559-2CA5-46C4-B329-D3103EEDC402}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F7DE0-4FE9-4D45-9450-C6A86594BCBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="12960" windowHeight="6864" xr2:uid="{EC8931CD-5C60-403B-9B81-EF15BC55DA65}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="9072" xr2:uid="{EC8931CD-5C60-403B-9B81-EF15BC55DA65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -854,12 +854,573 @@
         </r>
       </text>
     </comment>
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{EC620AEF-ABC1-490F-ACD1-1416F402CFF1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//In web.xml
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&lt;error-page&gt;
+    &lt;error-code&gt;404&lt;/error-code&gt;
+    &lt;location&gt;/404.html&lt;/location&gt;
+&lt;/error-page&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{F7425996-0166-4BBB-8169-9E00C174E341}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+//In web.xml
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    &lt;error-page&gt;
+        &lt;exception-type&gt;java.lang.Exception&lt;/exception-type&gt;
+        &lt;location&gt;/error.jsp&lt;/location&gt;
+    &lt;/error-page&gt;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//Catch all - final</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+    &lt;error-page&gt;
+        &lt;location&gt;/error.jsp&lt;/location&gt;
+    &lt;/error-page&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{26562CC6-34B0-4586-A45F-1494013F532F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+    &lt;link rel="stylesheet" href="https://stackpath.bootstrapcdn.com/bootstrap/4.4.1/css/bootstrap.min.css" integrity="sha384-Vkoo8x4CGsO3+Hhxv8T/Q5PaXtkKtu6ug5TOeNV6gBiFeWPGFN9MuhOf23Q9Ifjh" crossorigin="anonymous"&gt;
+    &lt;script src="https://code.jquery.com/jquery-3.4.1.slim.min.js" integrity="sha384-J6qa4849blE2+poT4WnyKhv5vZF5SrPo0iEjwBvKU7imGFAV0wwj1yYfoRSJoZ+n" crossorigin="anonymous"&gt;&lt;/script&gt;
+    &lt;script src="https://cdn.jsdelivr.net/npm/popper.js@1.16.0/dist/umd/popper.min.js" integrity="sha384-Q6E9RHvbIyZFJoft+2mJbHaEWldlvI9IOYy5n3zV9zzTtmI3UksdQRVvoxMfooAo" crossorigin="anonymous"&gt;&lt;/script&gt;
+    &lt;script src="https://stackpath.bootstrapcdn.com/bootstrap/4.4.1/js/bootstrap.min.js" integrity="sha384-wfSDF2E50Y2D1uUdj0O3uMBJnjuUD4Ih7YwaYd1iqfktj0Uod8GCExl3Og8ifwB6" crossorigin="anonymous"&gt;&lt;/script&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{27A02A60-0F1D-44E8-AE64-55F5B77C378A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    ArrayList&lt;String&gt; errors;
+    /**
+     * Check if the given value is an empty string, if so add error to error list
+     * 
+     * @param value The value to check
+     * @param fieldName The name of the field being checked
+     *
+     */
+    private String checkRequiredField(String value, String fieldName) {
+        if (value.equals("")) {
+            errors.add(fieldName + " is required");
+        }
+        return value;
+    }
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{B9396687-FB82-4FFC-8494-94EE1B6A7619}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    /**
+     * Returns a double form a string if valid, else return 0
+     * 
+     * @param value the string value to convert
+     * 
+     * @return the value as a double
+     */
+    private double getDoubleValue(String value) {
+        try {
+            return Double.parseDouble(value);
+        } catch (Exception e) {
+            return 0;
+        }
+    }
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//OR
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    /**
+     * Returns a double form a string if valid, else add error
+     *
+     * @param value the string value to convert
+     *
+     * @return the value as a double
+     */
+    private double getDoubleValue(String value, String fieldName) {
+        try {
+            return Double.parseDouble(value);
+        } catch (Exception e) {
+            errors.add(fieldName + "Is an invalid numeric value");
+            return 0;
+        }
+    }</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{EA8CCF34-3EEF-4CE0-A638-8DF2C4DEEDE3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    
+    ArrayList&lt;String&gt; errors;
+    /**
+     * Check if given number is numeric
+     * 
+     * @param value the as a string to check
+     * 
+     * @return true if value is numeric false if not
+     */
+    private boolean isNumeric(String value) {
+        try {
+            Double.parseDouble(value);
+            return true;
+        } catch (Exception e) {
+            return false;
+        }
+    }
+    /**
+     * Check if given number is numeric. Adds error if not
+     * 
+     * @param value the as a string to check
+     * @param fieldName The name of the field being checked
+     * 
+     * @return true if value is numeric false if not
+     */
+    private boolean isNumeric(String value, String fieldName) {
+        try {
+            Double.parseDouble(value);
+            return true;
+        } catch (Exception e) {
+            errors.add(fieldName + " is not a valid number");
+            return false;
+        }
+    }  </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{6E02DCC8-6538-4E1A-B038-8DE7ECE09045}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+    /**
+     * formats value into string with currency format
+     * 
+     * @param value to format
+     * 
+     * @return value fomatted as currency
+     */
+    private String currencyFormatter(double value) {
+        NumberFormat nf = NumberFormat.getCurrencyInstance();
+        return nf.format(value);
+    }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{7B7CC077-8AED-400D-818D-5023A94622C4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    /**
+     * formats value into string with percent format
+     * 
+     * @param value to format
+     * 
+     * @return value fomatted as percent
+     */
+    private String percentFormatter(double value) {
+        NumberFormat nf = NumberFormat.getPercentInstance();
+        return nf.format(value);
+    }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{B1E0792B-3553-4D1B-A794-7528DA3EF879}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    /**
+     * Returns a Integer form a string if valid, else return 0
+     *
+     * @param value the string value to convert
+     *
+     * @return the value as a Int
+     */
+    private int getIntegerValue(String value) {
+        try {
+            return Integer.parseInt(value);
+        } catch (Exception e) {
+            return 0;
+        }
+    }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{62D96B0F-197E-4CD0-8512-A631B068E0ED}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+        &lt;div&gt;
+            &lt;%if (errors.size() &gt; 0) {%&gt;
+                    &lt;div&gt;
+            &lt;%if (errors.size() &gt; 0) {%&gt;
+            &lt;ul class="alert alert-danger" role="alert"&gt;
+                &lt;% for (String err : errors) {%&gt;
+                &lt;li&gt;&lt;%= err%&gt;&lt;/li&gt;
+                    &lt;%}%&gt;
+            &lt;/ul&gt;
+            &lt;%}%&gt;
+        &lt;/div&gt;
+            &lt;%}%&gt;
+        &lt;/div&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{4E9591DA-FE14-4171-AE93-0D1959CB58FD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+final double FINANCE_CHARGE_PERCET = 0.015d;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{1EA3B851-8577-4771-ACA2-C552B78C6270}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+int[] termRange = IntStream.rangeClosed(1,6).toArray();</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{31802D8E-83C2-4157-BA49-2547254AAADC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    &lt;tag&gt;
+        &lt;name&gt;DateTime&lt;/name&gt;
+        &lt;tag-class&gt;com.nbcc.wmad.DateTime&lt;/tag-class&gt;
+        &lt;body-content&gt;empty&lt;/body-content&gt;
+    &lt;/tag&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{BBCAE11E-FCFB-4C25-BA5C-D504187328C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">        if(request.getParameter("btnClear") != null){
+            session.setAttribute("people", null);
+        }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{798B4E79-4BA4-4383-8CD9-5382EB77844A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+response.sendRedirect("index.jsp");</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{6BE04470-E084-4F4A-B9D4-C9B5CE3A1578}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+session.removeAttribute("authenticated");
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//OR
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{4AC805BF-44EA-45EE-AD2B-515385004D5F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cookie userIdCookie = new Cookie("userIdCookie", userId);
+userIdCookie.setMaxAge(60*60*24*365*2); //set the age to 2 years
+userIdCookie.setPath("/"); // allow access by the entire application
+response.addCookie(userIdCookie);</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{8EDCB695-CCEF-4FA2-B9A6-4F087CF01DEA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cookie[] cookies = request.getCookies();
+String cookieName = "userIdCookie";
+String cookieValue = "";
+for (int i = 0; i &lt; cookies.length; i++) {
+    Cookie cookie = cookies[i];
+    if (cookieName.equals(cookie.getName()))
+        cookieValue = cookie.getValue();
+}
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{E2D529B0-1748-4A2A-8F76-FEF47F1AD515}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+//Round to one decimal place.
+        matNeeded = Math.round(matNeeded * 10);
+        matNeeded = matNeeded / 10;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{B4BBF030-2F6B-4FA4-A1DF-1BB8D1893B1E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+//Code that deletes all persistent cookies  
+Cookie[] cookies = request.getCookies();
+for (int i = 0; i &lt; cookies.length; i++) {
+    Cookie cookie = cookies[i];
+    cookie.setMaxAge(0); //delete the cookie
+    cookie.setPath("/"); //allow the entire application to access it
+    response.addCookie(cookie);
+}</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Type Checking</t>
   </si>
@@ -910,6 +1471,66 @@
   </si>
   <si>
     <t>getDouble</t>
+  </si>
+  <si>
+    <t>JSP 404 / error page</t>
+  </si>
+  <si>
+    <t>JSP exception error page</t>
+  </si>
+  <si>
+    <t>bootstrap/ jquery link script</t>
+  </si>
+  <si>
+    <t>JSP Method checkRequiredField</t>
+  </si>
+  <si>
+    <t>JSP Method getDoubleValue</t>
+  </si>
+  <si>
+    <t>JSP Method isNumeric</t>
+  </si>
+  <si>
+    <t>JSP Method currencyFormatter</t>
+  </si>
+  <si>
+    <t>Constant / final</t>
+  </si>
+  <si>
+    <t>JSP Method getIntegerValue</t>
+  </si>
+  <si>
+    <t>JSP display errors</t>
+  </si>
+  <si>
+    <t>Int range / 1 to 10 array</t>
+  </si>
+  <si>
+    <t>Tlds file tag</t>
+  </si>
+  <si>
+    <t>Clear session var</t>
+  </si>
+  <si>
+    <t>JSP page redirect</t>
+  </si>
+  <si>
+    <t>JSP destroy session</t>
+  </si>
+  <si>
+    <t>Create and set cookie</t>
+  </si>
+  <si>
+    <t>Get cookie</t>
+  </si>
+  <si>
+    <t>JSP Method percentFormatter</t>
+  </si>
+  <si>
+    <t>Round number</t>
+  </si>
+  <si>
+    <t>Delete all cookies</t>
   </si>
 </sst>
 </file>
@@ -995,12 +1616,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Jeremy Stevens" id="{7115A2B2-57BD-4960-9439-A748A4338C84}" userId="4fb286149d9f999e" providerId="Windows Live"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1300,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5B71F5-6887-4D0F-8F12-95B391CBD724}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1396,6 +2011,106 @@
         <v>14</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
